--- a/Datos/Database by set/Set by name/Xlsx sets/Ravnica City of Guilds (RAV).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Ravnica City of Guilds (RAV).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A81"/>
+  <dimension ref="A1:A307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,560 +444,2142 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Absorb</t>
+          <t>Agrus Kos, Wojek Veteran</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Absorb</t>
+          <t>Auratouched Mage</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amplifire</t>
+          <t>Autochthon Wurm</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Awaken the Erstwhile</t>
+          <t>Barbarian Riftcutter</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bedeck // Bedazzle</t>
+          <t>Bathe in Light</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bedevil</t>
+          <t>Belltower Sphinx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bedevil</t>
+          <t>Benevolent Ancestor</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Benthic Biomancer</t>
+          <t>Birds of Paradise</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Benthic Biomancer</t>
+          <t>Blazing Archon</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Biogenic Ooze</t>
+          <t>Blockbuster</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Biomancer's Familiar</t>
+          <t>Bloodbond March</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Blood Crypt</t>
+          <t>Blood Funnel</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Breeding Pool</t>
+          <t>Bloodletter Quill</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cindervines</t>
+          <t>Boros Fury-Shield</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cindervines</t>
+          <t>Boros Garrison</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Deputy of Detention</t>
+          <t>Boros Guildmage</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Deputy of Detention</t>
+          <t>Boros Recruit</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Electrodominance</t>
+          <t>Boros Signet</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Emergency Powers</t>
+          <t>Boros Swiftblade</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>End-Raze Forerunners</t>
+          <t>Bottled Cloister</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ethereal Absolution</t>
+          <t>Brainspoil</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Font of Agonies</t>
+          <t>Bramble Elemental</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gate Colossus</t>
+          <t>Breath of Fury</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Godless Shrine</t>
+          <t>Brightflame</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Growth-Chamber Guardian</t>
+          <t>Caregiver</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Growth-Chamber Guardian</t>
+          <t>Carrion Howler</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Growth Spiral</t>
+          <t>Carven Caryatid</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Gruul Spellbreaker</t>
+          <t>Centaur Safeguard</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Gruul Spellbreaker</t>
+          <t>Cerulean Sphinx</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Guardian Project</t>
+          <t>Chant of Vitu-Ghazi</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Guardian Project</t>
+          <t>Char</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Gutterbones</t>
+          <t>Chord of Calling</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Gutterbones</t>
+          <t>Chorus of the Conclave</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hallowed Fountain</t>
+          <t>Circu, Dimir Lobotomist</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hero of Precinct One</t>
+          <t>Civic Wayfinder</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Hero of Precinct One</t>
+          <t>Cleansing Beam</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hydroid Krasis</t>
+          <t>Clinging Darkness</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hydroid Krasis</t>
+          <t>Cloudstone Curio</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Immolation Shaman</t>
+          <t>Clutch of the Undercity</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Incubation Druid</t>
+          <t>Coalhauler Swine</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Incubation Druid</t>
+          <t>Compulsive Research</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Judith, the Scourge Diva</t>
+          <t>Concerted Effort</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Judith, the Scourge Diva</t>
+          <t>Conclave Equenaut</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kaya, Orzhov Usurper</t>
+          <t>Conclave Phalanx</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kaya's Wrath</t>
+          <t>Conclave's Blessing</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Kaya's Wrath</t>
+          <t>Congregation at Dawn</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Lavinia, Azorius Renegade</t>
+          <t>Consult the Necrosages</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Lavinia, Azorius Renegade</t>
+          <t>Convolute</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Light Up the Stage</t>
+          <t>Copy Enchantment</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Lumbering Battlement</t>
+          <t>Courier Hawk</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Mass Manipulation</t>
+          <t>Crown of Convergence</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Mirror March</t>
+          <t>Cyclopean Snare</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Mortify</t>
+          <t>Darkblast</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nikya of the Old Ways</t>
+          <t>Dark Confidant</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Plaza of Harmony</t>
+          <t>Dark Heart of the Wood</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Precognitive Perception</t>
+          <t>Devouring Light</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Priest of Forgotten Gods</t>
+          <t>Dimir Aqueduct</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Priest of Forgotten Gods</t>
+          <t>Dimir Cutpurse</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Rakdos Firewheeler</t>
+          <t>Dimir Doppelganger</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Rakdos, the Showstopper</t>
+          <t>Dimir Guildmage</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Rampage of the Clans</t>
+          <t>Dimir House Guard</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Ravager Wurm</t>
+          <t>Dimir Infiltrator</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Rix Maadi Reveler</t>
+          <t>Dimir Machinations</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Seraph of the Scales</t>
+          <t>Dimir Signet</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Seraph of the Scales</t>
+          <t>Disembowel</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Simic Ascendancy</t>
+          <t>Divebomber Griffin</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Simic Ascendancy</t>
+          <t>Dizzy Spell</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Skarrgan Hellkite</t>
+          <t>Dogpile</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Smothering Tithe</t>
+          <t>Doubling Season</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Spawn of Mayhem</t>
+          <t>Dowsing Shaman</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sphinx of Foresight</t>
+          <t>Drake Familiar</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Stomping Ground</t>
+          <t>Dream Leash</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Teysa Karlov</t>
+          <t>Drift of Phantasms</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Teysa Karlov</t>
+          <t>Dromad Purebred</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Theater of Horrors</t>
+          <t>Drooling Groodion</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Tithe Taker</t>
+          <t>Dryad's Caress</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Tithe Taker</t>
+          <t>Duskmantle, House of Shadow</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Unbreakable Formation</t>
+          <t>Elves of Deep Shadow</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Unbreakable Formation</t>
+          <t>Elvish Skysweeper</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Zegana, Utopian Speaker</t>
+          <t>Empty the Catacombs</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Ethereal Usher</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Excruciator</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Eye of the Storm</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Faith's Fetters</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Farseek</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Festival of the Guildpact</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Fiery Conclusion</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Firemane Angel</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Fists of Ironwood</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Flame Fusillade</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Flame-Kin Zealot</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Flash Conscription</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Flickerform</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Flight of Fancy</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Flow of Ideas</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Followed Footsteps</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Forest</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Forest</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Forest</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Forest</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Frenzied Goblin</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Galvanic Arc</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Gate Hound</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Gather Courage</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Gaze of the Gorgon</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Ghosts of the Innocent</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Glare of Subdual</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Glass Golem</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Gleancrawler</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Glimpse the Unthinkable</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Goblin Fire Fiend</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Goblin Spelunkers</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Golgari Brownscale</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Golgari Germination</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Golgari Grave-Troll</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Golgari Guildmage</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Golgari Rot Farm</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Golgari Rotwurm</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Golgari Signet</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Golgari Thug</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Goliath Spider</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Grave-Shell Scarab</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Grayscaled Gharial</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Greater Forgeling</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Greater Mossdog</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Grifter's Blade</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Grozoth</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Guardian of Vitu-Ghazi</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Halcyon Glaze</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Hammerfist Giant</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Helldozer</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Hex</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Hour of Reckoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Hunted Dragon</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Hunted Horror</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Hunted Lammasu</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Hunted Phantasm</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Hunted Troll</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Incite Hysteria</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Indentured Oaf</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Induce Paranoia</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Infectious Host</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Instill Furor</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Island</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Island</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Island</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Island</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Ivy Dancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Junktroller</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Keening Banshee</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Last Gasp</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Leashling</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Leave No Trace</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Life from the Loam</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Lightning Helix</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Light of Sanction</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Lore Broker</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Loxodon Gatekeeper</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Loxodon Hierarch</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Lurking Informant</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Mark of Eviction</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Master Warcraft</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Mausoleum Turnkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Mindleech Mass</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Mindmoil</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Mnemonic Nexus</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Moldervine Cloak</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Molten Sentry</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Moonlight Bargain</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Moroii</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Mortipede</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Mountain</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Mountain</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Mountain</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Mountain</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Muddle the Mixture</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Necromantic Thirst</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Necroplasm</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Netherborn Phalanx</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Nightguard Patrol</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Nightmare Void</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Nullmage Shepherd</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Nullstone Gargoyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Oathsworn Giant</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Ordruun Commando</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Overgrown Tomb</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Overwhelm</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Pariah's Shield</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Peel from Reality</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Peregrine Mask</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Perilous Forays</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Perplex</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Phytohydra</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Plague Boiler</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Plains</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Plains</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Plains</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Plains</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Pollenbright Wings</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Primordial Sage</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Privileged Position</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Psychic Drain</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Putrefy</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Quickchange</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Rain of Embers</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Rally the Righteous</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Razia, Boros Archangel</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Razia's Purification</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Recollect</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Remand</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Reroute</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Ribbons of Night</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Rolling Spoil</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Roofstalker Wight</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Root-Kin Ally</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Sabertooth Alley Cat</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Sacred Foundry</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Sadistic Augermage</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Sandsower</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Savra, Queen of the Golgari</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Scatter the Seeds</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Scion of the Wild</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Screeching Griffin</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Searing Meditation</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Seeds of Strength</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Seed Spark</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Seismic Spike</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Selesnya Evangel</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Selesnya Guildmage</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Selesnya Sagittars</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Selesnya Sanctuary</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Selesnya Signet</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Sell-Sword Brute</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Sewerdreg</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Shadow of Doubt</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Shambling Shell</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Shred Memory</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Siege Wurm</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Sins of the Past</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Sisters of Stone Death</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Skyknight Legionnaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Smash</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Snapping Drake</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Sparkmage Apprentice</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Spawnbroker</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Spectral Searchlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Stasis Cell</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Stinkweed Imp</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Stone-Seeder Hierophant</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Stoneshaker Shaman</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Strands of Undeath</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Sundering Vitae</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Sunforger</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Sunhome Enforcer</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Sunhome, Fortress of the Legion</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Suppression Field</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Surge of Zeal</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Surveilling Sprite</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Svogthos, the Restless Tomb</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Swamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Swamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Swamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Swamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Szadek, Lord of Secrets</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Tattered Drake</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Telling Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Temple Garden</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Terraformer</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Terrarion</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Thoughtpicker Witch</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Three Dreams</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Thundersong Trumpeter</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Tidewater Minion</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Tolsimir Wolfblood</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Torpid Moloch</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Transluminant</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Trophy Hunter</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Tunnel Vision</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Twilight Drover</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Twisted Justice</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Undercity Shade</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Ursapine</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Vedalken Dismisser</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Vedalken Entrancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Veteran Armorer</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Viashino Fangtail</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Viashino Slasher</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Vigor Mortis</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Vindictive Mob</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Vinelasher Kudzu</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Vitu-Ghazi, the City-Tree</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Votary of the Conclave</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Voyager Staff</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Vulturous Zombie</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Warp World</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>War-Torch Goblin</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Watchwolf</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Watery Grave</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Wizened Snitches</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Woebringer Demon</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Wojek Apothecary</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Wojek Embermage</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Wojek Siren</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Woodwraith Corrupter</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Woodwraith Strangler</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Zephyr Spirit</t>
         </is>
       </c>
     </row>
